--- a/Team02_NinjaScrapers_2023/src/test/resources/IngredientsForPCOS.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/IngredientsForPCOS.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4FD0EC0F-A741-45F6-A801-A146D616833E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B91152-C90C-4382-9AD8-109133E1A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +19,6 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -644,243 +648,243 @@
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -894,166 +898,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB1966A-6F7D-45B0-A6B3-74B478F9BAD4}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1075,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE47FE94-8038-4D62-81CD-423FFABD19A9}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,46 +1088,41 @@
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1136,47 +1133,47 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
